--- a/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_P5_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepLowerLeft_s2_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1603.485074092078</v>
+        <v>2292.996863021594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.0009999275207519531</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.30507409208358</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.6086347173128</v>
+        <v>12.28173377703811</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.6086347173128</v>
+        <v>12.06495752168237</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1131.629999999994</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.55</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.72653447714343</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.39136528268722</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.32314874444808</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,15 +1057,155 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>73.88999999999919</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>67.7199999999992</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>63.25</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>71.60499999999919</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.36999999999921</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>178.3349999999991</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3949999999987</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>166.9649999999986</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>176.139999999999</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>177.2199999999986</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>146.1300000000011</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>139.8850000000011</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>132.8150000000011</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.5950000000011</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>143.3350000000011</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>146.1300000000011</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>139.8850000000011</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>132.8150000000011</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>135.5950000000011</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>143.3350000000011</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>178.3349999999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>169.3949999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>166.964999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>176.1399999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>177.219999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>46.13000000000108</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>39.8850000000011</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>32.81500000000108</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>35.59500000000111</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>43.33500000000109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>78.33499999999876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>69.39499999999822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>66.96499999999804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.13999999999857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>77.21999999999804</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6.66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1911,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>14.08</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1922,7 +2062,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>7.68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1933,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>14.11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1944,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>8.1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1966,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1977,7 +2117,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1988,7 +2128,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1999,7 +2139,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2040,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2051,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2062,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2073,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2084,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2095,7 +2235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2106,7 +2246,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2117,7 +2257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2128,7 +2268,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2139,12 +2279,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
